--- a/docs/excel/TChampionship.xlsx
+++ b/docs/excel/TChampionship.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -231,43 +231,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Rebuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelaySign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlindType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialChips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddonChips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Championship" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小开局人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大开局人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuy花费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addon花费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前注大小盲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>rebuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>addon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票id（道具id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间id（开启时间、频率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事开始时间之前多久开始显示</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距离比赛开始时间多久可以开启报名</t>
+    </r>
+  </si>
+  <si>
     <t>SignTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rebuy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DelaySign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlindType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitialChips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddonChips</t>
+    <t>延迟报名时间</t>
+  </si>
+  <si>
+    <t>addon可获得筹码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始筹码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,47 +469,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一回合最大可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>rebuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开赛的准备时间</t>
+  </si>
+  <si>
     <t>Autoinit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Championship" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小开局人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大开局人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rebuy花费金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addon花费金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报名费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统服务费</t>
+    <t>。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +584,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -737,7 +928,7 @@
   <dimension ref="A1:Y148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,15 +943,20 @@
     <col min="8" max="8" width="10.19921875" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.796875" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="8.796875" style="4"/>
-    <col min="13" max="13" width="11.796875" style="4" customWidth="1"/>
-    <col min="14" max="18" width="8.796875" style="4"/>
-    <col min="19" max="19" width="9.59765625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.796875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="4"/>
+    <col min="16" max="16" width="13.8984375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.59765625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="4"/>
+    <col min="19" max="19" width="11.69921875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.09765625" style="4" customWidth="1"/>
     <col min="21" max="21" width="8.796875" style="4"/>
     <col min="22" max="22" width="12" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.09765625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.09765625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="19.796875" style="4" customWidth="1"/>
     <col min="25" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
@@ -804,41 +1000,41 @@
       <c r="M1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>77</v>
+      <c r="X1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -928,31 +1124,76 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="T4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>85</v>
+      <c r="V4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -3091,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TChampionship.xlsx
+++ b/docs/excel/TChampionship.xlsx
@@ -513,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -534,6 +534,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -559,15 +571,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,10 +598,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -927,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,8 +1270,8 @@
       <c r="T5" s="6">
         <v>3000</v>
       </c>
-      <c r="U5" s="6">
-        <v>201</v>
+      <c r="U5" s="9">
+        <v>21001</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6">
@@ -1330,8 +1345,8 @@
       <c r="T6" s="6">
         <v>3000</v>
       </c>
-      <c r="U6" s="6">
-        <v>201</v>
+      <c r="U6" s="9">
+        <v>21001</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6">
@@ -1405,8 +1420,8 @@
       <c r="T7" s="6">
         <v>3000</v>
       </c>
-      <c r="U7" s="6">
-        <v>201</v>
+      <c r="U7" s="9">
+        <v>21001</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6">
@@ -1480,8 +1495,8 @@
       <c r="T8" s="6">
         <v>5000</v>
       </c>
-      <c r="U8" s="6">
-        <v>201</v>
+      <c r="U8" s="9">
+        <v>21001</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6">
@@ -1555,8 +1570,8 @@
       <c r="T9" s="6">
         <v>5000</v>
       </c>
-      <c r="U9" s="6">
-        <v>201</v>
+      <c r="U9" s="9">
+        <v>21001</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6">
@@ -1628,8 +1643,8 @@
       <c r="T10" s="6">
         <v>5000</v>
       </c>
-      <c r="U10" s="6">
-        <v>201</v>
+      <c r="U10" s="9">
+        <v>21001</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6">
@@ -1701,8 +1716,8 @@
       <c r="T11" s="6">
         <v>10000</v>
       </c>
-      <c r="U11" s="6">
-        <v>201</v>
+      <c r="U11" s="9">
+        <v>21001</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6">
@@ -1772,8 +1787,8 @@
       <c r="T12" s="6">
         <v>3000</v>
       </c>
-      <c r="U12" s="6">
-        <v>201</v>
+      <c r="U12" s="9">
+        <v>21001</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6">
@@ -1847,8 +1862,8 @@
       <c r="T13" s="6">
         <v>5000</v>
       </c>
-      <c r="U13" s="6">
-        <v>201</v>
+      <c r="U13" s="9">
+        <v>21001</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6">
@@ -1922,8 +1937,8 @@
       <c r="T14" s="6">
         <v>5000</v>
       </c>
-      <c r="U14" s="6">
-        <v>201</v>
+      <c r="U14" s="9">
+        <v>21001</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6">
@@ -1979,8 +1994,8 @@
       <c r="T15" s="6">
         <v>3000</v>
       </c>
-      <c r="U15" s="6">
-        <v>221</v>
+      <c r="U15" s="9">
+        <v>22001</v>
       </c>
       <c r="V15" s="6">
         <v>8</v>
@@ -2034,8 +2049,8 @@
       <c r="T16" s="6">
         <v>3000</v>
       </c>
-      <c r="U16" s="6">
-        <v>221</v>
+      <c r="U16" s="9">
+        <v>22001</v>
       </c>
       <c r="V16" s="6">
         <v>8</v>
@@ -2089,8 +2104,8 @@
       <c r="T17" s="6">
         <v>3000</v>
       </c>
-      <c r="U17" s="6">
-        <v>221</v>
+      <c r="U17" s="9">
+        <v>22001</v>
       </c>
       <c r="V17" s="6">
         <v>8</v>
@@ -2144,8 +2159,8 @@
       <c r="T18" s="6">
         <v>3000</v>
       </c>
-      <c r="U18" s="6">
-        <v>221</v>
+      <c r="U18" s="9">
+        <v>22001</v>
       </c>
       <c r="V18" s="6">
         <v>8</v>
@@ -2199,8 +2214,8 @@
       <c r="T19" s="6">
         <v>3000</v>
       </c>
-      <c r="U19" s="6">
-        <v>221</v>
+      <c r="U19" s="9">
+        <v>22001</v>
       </c>
       <c r="V19" s="6">
         <v>8</v>
@@ -2254,8 +2269,8 @@
       <c r="T20" s="6">
         <v>3000</v>
       </c>
-      <c r="U20" s="6">
-        <v>221</v>
+      <c r="U20" s="9">
+        <v>22001</v>
       </c>
       <c r="V20" s="6">
         <v>8</v>
@@ -2309,8 +2324,8 @@
       <c r="T21" s="6">
         <v>4000</v>
       </c>
-      <c r="U21" s="6">
-        <v>221</v>
+      <c r="U21" s="9">
+        <v>22001</v>
       </c>
       <c r="V21" s="6">
         <v>8</v>
@@ -2364,8 +2379,8 @@
       <c r="T22" s="6">
         <v>4000</v>
       </c>
-      <c r="U22" s="6">
-        <v>221</v>
+      <c r="U22" s="9">
+        <v>22001</v>
       </c>
       <c r="V22" s="6">
         <v>8</v>
@@ -2419,8 +2434,8 @@
       <c r="T23" s="6">
         <v>4000</v>
       </c>
-      <c r="U23" s="6">
-        <v>221</v>
+      <c r="U23" s="9">
+        <v>22001</v>
       </c>
       <c r="V23" s="6">
         <v>8</v>
@@ -2474,8 +2489,8 @@
       <c r="T24" s="6">
         <v>4000</v>
       </c>
-      <c r="U24" s="6">
-        <v>221</v>
+      <c r="U24" s="9">
+        <v>22001</v>
       </c>
       <c r="V24" s="6">
         <v>8</v>
@@ -2529,8 +2544,8 @@
       <c r="T25" s="6">
         <v>4000</v>
       </c>
-      <c r="U25" s="6">
-        <v>221</v>
+      <c r="U25" s="9">
+        <v>22001</v>
       </c>
       <c r="V25" s="6">
         <v>8</v>
@@ -2584,8 +2599,8 @@
       <c r="T26" s="6">
         <v>4000</v>
       </c>
-      <c r="U26" s="6">
-        <v>221</v>
+      <c r="U26" s="9">
+        <v>22001</v>
       </c>
       <c r="V26" s="6">
         <v>8</v>
@@ -2639,8 +2654,8 @@
       <c r="T27" s="6">
         <v>4000</v>
       </c>
-      <c r="U27" s="6">
-        <v>221</v>
+      <c r="U27" s="9">
+        <v>22001</v>
       </c>
       <c r="V27" s="6">
         <v>8</v>
@@ -2694,8 +2709,8 @@
       <c r="T28" s="6">
         <v>4000</v>
       </c>
-      <c r="U28" s="6">
-        <v>221</v>
+      <c r="U28" s="9">
+        <v>22001</v>
       </c>
       <c r="V28" s="6">
         <v>8</v>

--- a/docs/excel/TChampionship.xlsx
+++ b/docs/excel/TChampionship.xlsx
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15:U28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" s="6">
         <v>600</v>
@@ -1298,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6">
         <v>800</v>
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
         <v>800</v>
@@ -1448,7 +1448,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
         <v>800</v>
@@ -1523,7 +1523,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="6">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
         <v>800</v>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6">
         <v>800</v>
@@ -1669,7 +1669,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6">
         <v>800</v>
@@ -1742,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F12" s="6">
         <v>600</v>
@@ -1815,7 +1815,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6">
         <v>800</v>
@@ -1890,7 +1890,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="6">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6">
         <v>800</v>
@@ -1963,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6">
         <v>12</v>
@@ -2018,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F16" s="6">
         <v>12</v>
@@ -2073,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F17" s="6">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="6">
         <v>6</v>
@@ -2183,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6">
         <v>6</v>
@@ -2238,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6">
         <v>6</v>
@@ -2348,7 +2348,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6">
         <v>6</v>
@@ -2403,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6">
         <v>6</v>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="6">
         <v>6</v>

--- a/docs/excel/TChampionship.xlsx
+++ b/docs/excel/TChampionship.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -506,6 +506,10 @@
   </si>
   <si>
     <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +947,7 @@
   <dimension ref="A1:Y148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,8 +965,8 @@
     <col min="11" max="11" width="13" style="4" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" style="4" customWidth="1"/>
     <col min="13" max="13" width="22.796875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" style="4"/>
+    <col min="14" max="14" width="11.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10" style="4" customWidth="1"/>
     <col min="16" max="16" width="13.8984375" style="4" customWidth="1"/>
     <col min="17" max="17" width="14.59765625" style="4" customWidth="1"/>
     <col min="18" max="18" width="8.796875" style="4"/>
@@ -1072,16 +1076,16 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>17</v>
@@ -1111,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>17</v>
@@ -1120,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>17</v>

--- a/docs/excel/TChampionship.xlsx
+++ b/docs/excel/TChampionship.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Championship" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -944,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y148"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1365,1380 +1366,370 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="H7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>106</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6">
-        <v>103</v>
-      </c>
-      <c r="M7" s="6">
-        <v>7200</v>
-      </c>
-      <c r="N7" s="6">
-        <v>7200</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1200</v>
-      </c>
-      <c r="P7" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="S7" s="6">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="T7" s="6">
         <v>3000</v>
       </c>
       <c r="U7" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6">
-        <v>6000</v>
-      </c>
-      <c r="X7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1</v>
-      </c>
+        <v>22001</v>
+      </c>
+      <c r="V7" s="6">
+        <v>8</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
       <c r="F8" s="6">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20000</v>
-      </c>
-      <c r="J8" s="6">
-        <v>20000</v>
-      </c>
-      <c r="K8" s="6">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6">
-        <v>104</v>
-      </c>
-      <c r="M8" s="6">
-        <v>14400</v>
-      </c>
-      <c r="N8" s="6">
-        <v>14400</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P8" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="S8" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="T8" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="U8" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>1</v>
-      </c>
+        <v>22001</v>
+      </c>
+      <c r="V8" s="6">
+        <v>8</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="H9" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I9" s="6">
-        <v>50000</v>
-      </c>
-      <c r="J9" s="6">
-        <v>50000</v>
-      </c>
-      <c r="K9" s="6">
-        <v>108</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6">
-        <v>105</v>
-      </c>
-      <c r="M9" s="6">
-        <v>28800</v>
-      </c>
-      <c r="N9" s="6">
-        <v>28800</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P9" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="S9" s="6">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="T9" s="6">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="U9" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X9" s="6">
-        <v>2</v>
-      </c>
+        <v>22001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>8</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>800</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="K10" s="6">
-        <v>109</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6">
-        <v>106</v>
-      </c>
-      <c r="M10" s="6">
-        <v>64800</v>
-      </c>
-      <c r="N10" s="6">
-        <v>64800</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P10" s="6">
+        <v>301</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>241</v>
+      </c>
+      <c r="S10" s="6">
+        <v>202</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V10" s="6">
         <v>8</v>
       </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>106</v>
-      </c>
-      <c r="S10" s="6">
-        <v>106</v>
-      </c>
-      <c r="T10" s="6">
-        <v>5000</v>
-      </c>
-      <c r="U10" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X10" s="6">
-        <v>2</v>
-      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>800</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="6">
-        <v>50000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="J11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>110</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6">
-        <v>107</v>
-      </c>
-      <c r="M11" s="6">
-        <v>172800</v>
-      </c>
-      <c r="N11" s="6">
-        <v>86400</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P11" s="6">
+        <v>301</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>242</v>
+      </c>
+      <c r="S11" s="6">
+        <v>202</v>
+      </c>
+      <c r="T11" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V11" s="6">
         <v>8</v>
       </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>107</v>
-      </c>
-      <c r="S11" s="6">
-        <v>106</v>
-      </c>
-      <c r="T11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="U11" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6">
-        <v>20000</v>
-      </c>
-      <c r="X11" s="6">
-        <v>2</v>
-      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>600</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
-        <v>108</v>
-      </c>
-      <c r="M12" s="6">
-        <v>7200</v>
-      </c>
-      <c r="N12" s="6">
-        <v>7200</v>
-      </c>
-      <c r="O12" s="6">
-        <v>600</v>
-      </c>
-      <c r="P12" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>108</v>
-      </c>
-      <c r="S12" s="6">
-        <v>101</v>
-      </c>
-      <c r="T12" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U12" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6">
-        <v>6000</v>
-      </c>
-      <c r="X12" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>800</v>
-      </c>
-      <c r="G13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="6">
-        <v>112</v>
-      </c>
-      <c r="L13" s="6">
-        <v>109</v>
-      </c>
-      <c r="M13" s="6">
-        <v>14400</v>
-      </c>
-      <c r="N13" s="6">
-        <v>14400</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P13" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>109</v>
-      </c>
-      <c r="S13" s="6">
-        <v>105</v>
-      </c>
-      <c r="T13" s="6">
-        <v>5000</v>
-      </c>
-      <c r="U13" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X13" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>1</v>
-      </c>
-    </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
-        <v>800</v>
-      </c>
-      <c r="G14" s="6">
-        <v>30000</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="6">
-        <v>30000</v>
-      </c>
-      <c r="J14" s="6">
-        <v>30000</v>
-      </c>
-      <c r="K14" s="6">
-        <v>113</v>
-      </c>
-      <c r="L14" s="6">
-        <v>110</v>
-      </c>
-      <c r="M14" s="6">
-        <v>21600</v>
-      </c>
-      <c r="N14" s="6">
-        <v>21600</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1800</v>
-      </c>
-      <c r="P14" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6">
-        <v>110</v>
-      </c>
-      <c r="S14" s="6">
-        <v>103</v>
-      </c>
-      <c r="T14" s="6">
-        <v>5000</v>
-      </c>
-      <c r="U14" s="9">
-        <v>21001</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>101</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6">
-        <v>500</v>
-      </c>
-      <c r="H15" s="6">
-        <v>50</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
-        <v>301</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6">
-        <v>201</v>
-      </c>
-      <c r="S15" s="6">
-        <v>201</v>
-      </c>
-      <c r="T15" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U15" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V15" s="6">
-        <v>8</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>102</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="6">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
-        <v>301</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6">
-        <v>202</v>
-      </c>
-      <c r="S16" s="6">
-        <v>201</v>
-      </c>
-      <c r="T16" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U16" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V16" s="6">
-        <v>8</v>
-      </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H17" s="6">
-        <v>500</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
-        <v>301</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6">
-        <v>203</v>
-      </c>
-      <c r="S17" s="6">
-        <v>201</v>
-      </c>
-      <c r="T17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U17" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V17" s="6">
-        <v>8</v>
-      </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>111</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6">
-        <v>6</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="6">
-        <v>100</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6">
-        <v>301</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6">
-        <v>221</v>
-      </c>
-      <c r="S18" s="6">
-        <v>201</v>
-      </c>
-      <c r="T18" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U18" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V18" s="6">
-        <v>8</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>112</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6">
-        <v>6</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="6">
-        <v>200</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <v>301</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6">
-        <v>222</v>
-      </c>
-      <c r="S19" s="6">
-        <v>201</v>
-      </c>
-      <c r="T19" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U19" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V19" s="6">
-        <v>8</v>
-      </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>113</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6">
-        <v>6</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="6">
-        <v>500</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <v>301</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6">
-        <v>223</v>
-      </c>
-      <c r="S20" s="6">
-        <v>201</v>
-      </c>
-      <c r="T20" s="6">
-        <v>3000</v>
-      </c>
-      <c r="U20" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V20" s="6">
-        <v>8</v>
-      </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>114</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>6</v>
-      </c>
-      <c r="G21" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
-        <v>301</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6">
-        <v>224</v>
-      </c>
-      <c r="S21" s="6">
-        <v>201</v>
-      </c>
-      <c r="T21" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U21" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V21" s="6">
-        <v>8</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>115</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6">
-        <v>6</v>
-      </c>
-      <c r="G22" s="6">
-        <v>20000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <v>301</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6">
-        <v>225</v>
-      </c>
-      <c r="S22" s="6">
-        <v>201</v>
-      </c>
-      <c r="T22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U22" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V22" s="6">
-        <v>8</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>116</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6">
-        <v>6</v>
-      </c>
-      <c r="G23" s="6">
-        <v>50000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>301</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6">
-        <v>226</v>
-      </c>
-      <c r="S23" s="6">
-        <v>201</v>
-      </c>
-      <c r="T23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U23" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V23" s="6">
-        <v>8</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>117</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6">
-        <v>100000</v>
-      </c>
-      <c r="H24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <v>301</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6">
-        <v>227</v>
-      </c>
-      <c r="S24" s="6">
-        <v>201</v>
-      </c>
-      <c r="T24" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U24" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V24" s="6">
-        <v>8</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>121</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6">
-        <v>50000</v>
-      </c>
-      <c r="H25" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
-        <v>301</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6">
-        <v>241</v>
-      </c>
-      <c r="S25" s="6">
-        <v>202</v>
-      </c>
-      <c r="T25" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U25" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V25" s="6">
-        <v>8</v>
-      </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>122</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2</v>
-      </c>
-      <c r="G26" s="6">
-        <v>100000</v>
-      </c>
-      <c r="H26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
-        <v>301</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6">
-        <v>242</v>
-      </c>
-      <c r="S26" s="6">
-        <v>202</v>
-      </c>
-      <c r="T26" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U26" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V26" s="6">
-        <v>8</v>
-      </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>123</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6">
-        <v>200000</v>
-      </c>
-      <c r="H27" s="6">
-        <v>20000</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <v>301</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6">
-        <v>243</v>
-      </c>
-      <c r="S27" s="6">
-        <v>202</v>
-      </c>
-      <c r="T27" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U27" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V27" s="6">
-        <v>8</v>
-      </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>124</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="6">
-        <v>500000</v>
-      </c>
-      <c r="H28" s="6">
-        <v>50000</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <v>301</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6">
-        <v>244</v>
-      </c>
-      <c r="S28" s="6">
-        <v>202</v>
-      </c>
-      <c r="T28" s="6">
-        <v>4000</v>
-      </c>
-      <c r="U28" s="9">
-        <v>22001</v>
-      </c>
-      <c r="V28" s="6">
-        <v>8</v>
-      </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3247,81 +2238,6 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3415,4 +2331,1106 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>800</v>
+      </c>
+      <c r="G1" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H1" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I1" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J1" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K1" s="6">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6">
+        <v>103</v>
+      </c>
+      <c r="M1" s="6">
+        <v>7200</v>
+      </c>
+      <c r="N1" s="6">
+        <v>7200</v>
+      </c>
+      <c r="O1" s="6">
+        <v>1200</v>
+      </c>
+      <c r="P1" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>1</v>
+      </c>
+      <c r="R1" s="6">
+        <v>103</v>
+      </c>
+      <c r="S1" s="6">
+        <v>102</v>
+      </c>
+      <c r="T1" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U1" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6">
+        <v>6000</v>
+      </c>
+      <c r="X1" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>800</v>
+      </c>
+      <c r="G2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>107</v>
+      </c>
+      <c r="L2" s="6">
+        <v>104</v>
+      </c>
+      <c r="M2" s="6">
+        <v>14400</v>
+      </c>
+      <c r="N2" s="6">
+        <v>14400</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P2" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>104</v>
+      </c>
+      <c r="S2" s="6">
+        <v>103</v>
+      </c>
+      <c r="T2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U2" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>800</v>
+      </c>
+      <c r="G3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>108</v>
+      </c>
+      <c r="L3" s="6">
+        <v>105</v>
+      </c>
+      <c r="M3" s="6">
+        <v>28800</v>
+      </c>
+      <c r="N3" s="6">
+        <v>28800</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P3" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>105</v>
+      </c>
+      <c r="S3" s="6">
+        <v>105</v>
+      </c>
+      <c r="T3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>800</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>109</v>
+      </c>
+      <c r="L4" s="6">
+        <v>106</v>
+      </c>
+      <c r="M4" s="6">
+        <v>64800</v>
+      </c>
+      <c r="N4" s="6">
+        <v>64800</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P4" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>106</v>
+      </c>
+      <c r="S4" s="6">
+        <v>106</v>
+      </c>
+      <c r="T4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>800</v>
+      </c>
+      <c r="G5" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>500000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>500000</v>
+      </c>
+      <c r="K5" s="6">
+        <v>110</v>
+      </c>
+      <c r="L5" s="6">
+        <v>107</v>
+      </c>
+      <c r="M5" s="6">
+        <v>172800</v>
+      </c>
+      <c r="N5" s="6">
+        <v>86400</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P5" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>107</v>
+      </c>
+      <c r="S5" s="6">
+        <v>106</v>
+      </c>
+      <c r="T5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6">
+        <v>20000</v>
+      </c>
+      <c r="X5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>600</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
+        <v>108</v>
+      </c>
+      <c r="M6" s="6">
+        <v>7200</v>
+      </c>
+      <c r="N6" s="6">
+        <v>7200</v>
+      </c>
+      <c r="O6" s="6">
+        <v>600</v>
+      </c>
+      <c r="P6" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>108</v>
+      </c>
+      <c r="S6" s="6">
+        <v>101</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U6" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>800</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>112</v>
+      </c>
+      <c r="L7" s="6">
+        <v>109</v>
+      </c>
+      <c r="M7" s="6">
+        <v>14400</v>
+      </c>
+      <c r="N7" s="6">
+        <v>14400</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>109</v>
+      </c>
+      <c r="S7" s="6">
+        <v>105</v>
+      </c>
+      <c r="T7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U7" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="X7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>800</v>
+      </c>
+      <c r="G8" s="6">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="6">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>113</v>
+      </c>
+      <c r="L8" s="6">
+        <v>110</v>
+      </c>
+      <c r="M8" s="6">
+        <v>21600</v>
+      </c>
+      <c r="N8" s="6">
+        <v>21600</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>110</v>
+      </c>
+      <c r="S8" s="6">
+        <v>103</v>
+      </c>
+      <c r="T8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U8" s="9">
+        <v>21001</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="X8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>123</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>200000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <v>301</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>243</v>
+      </c>
+      <c r="S9" s="6">
+        <v>202</v>
+      </c>
+      <c r="T9" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U9" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>8</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>124</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>301</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>244</v>
+      </c>
+      <c r="S10" s="6">
+        <v>202</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V10" s="6">
+        <v>8</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>111</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>301</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>221</v>
+      </c>
+      <c r="S11" s="6">
+        <v>201</v>
+      </c>
+      <c r="T11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V11" s="6">
+        <v>8</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>112</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>200</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>301</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>222</v>
+      </c>
+      <c r="S12" s="6">
+        <v>201</v>
+      </c>
+      <c r="T12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U12" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V12" s="6">
+        <v>8</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>113</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>500</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <v>301</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <v>223</v>
+      </c>
+      <c r="S13" s="6">
+        <v>201</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U13" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V13" s="6">
+        <v>8</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>114</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>301</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <v>224</v>
+      </c>
+      <c r="S14" s="6">
+        <v>201</v>
+      </c>
+      <c r="T14" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U14" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V14" s="6">
+        <v>8</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>115</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <v>301</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6">
+        <v>225</v>
+      </c>
+      <c r="S15" s="6">
+        <v>201</v>
+      </c>
+      <c r="T15" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U15" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V15" s="6">
+        <v>8</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>116</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
+        <v>301</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>226</v>
+      </c>
+      <c r="S16" s="6">
+        <v>201</v>
+      </c>
+      <c r="T16" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U16" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V16" s="6">
+        <v>8</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>117</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>301</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>227</v>
+      </c>
+      <c r="S17" s="6">
+        <v>201</v>
+      </c>
+      <c r="T17" s="6">
+        <v>4000</v>
+      </c>
+      <c r="U17" s="9">
+        <v>22001</v>
+      </c>
+      <c r="V17" s="6">
+        <v>8</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>